--- a/test-assets.xlsx
+++ b/test-assets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\Projects\twospace\backend\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\Projects\twospace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D24A910-E7FD-418F-903A-C1712D7A16C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7468136-BABB-4148-80A0-91552E28B75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{99289F10-E1A8-45AE-AF49-AFE48E58DC38}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B8341F0-AC8B-4AFD-9CDA-0F59B1A2CC13}"/>
   </bookViews>
   <sheets>
     <sheet name="test-assets" sheetId="1" r:id="rId1"/>
@@ -20,132 +20,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
-  <si>
-    <t>assetNumber</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>serialNumber</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>purchasePrice</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>assignmentType</t>
-  </si>
-  <si>
-    <t>assignedTo</t>
-  </si>
-  <si>
-    <t>employeeId</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>createdAt</t>
-  </si>
-  <si>
-    <t>updatedAt</t>
-  </si>
-  <si>
-    <t>01-00006</t>
-  </si>
-  <si>
-    <t>LAPTOP</t>
-  </si>
-  <si>
-    <t>Available Stock</t>
+    <t>SN16345</t>
   </si>
   <si>
     <t>HP EliteBook 840 G7</t>
   </si>
   <si>
-    <t>IT Department - store room</t>
-  </si>
-  <si>
-    <t>Unassigned</t>
-  </si>
-  <si>
-    <t>2023-01-10T09:00:00Z</t>
-  </si>
-  <si>
-    <t>01-00007</t>
-  </si>
-  <si>
-    <t>DESKTOP</t>
+    <t>SN16346</t>
   </si>
   <si>
     <t>Dell OptiPlex 7080</t>
   </si>
   <si>
-    <t>2023-01-12T10:00:00Z</t>
-  </si>
-  <si>
-    <t>01-00008</t>
-  </si>
-  <si>
-    <t>TABLET</t>
+    <t>SN16347</t>
   </si>
   <si>
     <t>iPad Air 4</t>
   </si>
   <si>
-    <t>2023-01-15T11:00:00Z</t>
-  </si>
-  <si>
-    <t>01-00009</t>
-  </si>
-  <si>
-    <t>MOBILE_PHONE</t>
+    <t>SN16348</t>
   </si>
   <si>
     <t>iPhone 13</t>
   </si>
   <si>
-    <t>2023-01-18T12:00:00Z</t>
-  </si>
-  <si>
-    <t>01-00010</t>
-  </si>
-  <si>
-    <t>MONITOR</t>
+    <t>SN16349</t>
   </si>
   <si>
     <t>Dell UltraSharp U2720Q</t>
   </si>
   <si>
-    <t>2023-01-20T13:00:00Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-20T13:00:00Z </t>
-  </si>
-  <si>
-    <t>SN15345</t>
-  </si>
-  <si>
-    <t>SN15346</t>
-  </si>
-  <si>
-    <t>SN15347</t>
-  </si>
-  <si>
-    <t>SN12548</t>
-  </si>
-  <si>
-    <t>SN12549</t>
+    <t>serial_number</t>
   </si>
 </sst>
 </file>
@@ -1005,219 +915,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD184BA-050C-4F04-8977-34E75827EF50}">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E89F24-756E-47B7-9183-A54C811BB765}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>1200</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>900</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>600</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>800</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6">
-        <v>400</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/test-assets.xlsx
+++ b/test-assets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\Projects\twospace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7468136-BABB-4148-80A0-91552E28B75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06393663-E951-46BF-AA78-8F0008975D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B8341F0-AC8B-4AFD-9CDA-0F59B1A2CC13}"/>
   </bookViews>
@@ -25,44 +25,44 @@
     <t>description</t>
   </si>
   <si>
-    <t>SN16345</t>
-  </si>
-  <si>
     <t>HP EliteBook 840 G7</t>
   </si>
   <si>
-    <t>SN16346</t>
-  </si>
-  <si>
     <t>Dell OptiPlex 7080</t>
   </si>
   <si>
-    <t>SN16347</t>
-  </si>
-  <si>
     <t>iPad Air 4</t>
   </si>
   <si>
-    <t>SN16348</t>
-  </si>
-  <si>
     <t>iPhone 13</t>
   </si>
   <si>
-    <t>SN16349</t>
-  </si>
-  <si>
     <t>Dell UltraSharp U2720Q</t>
   </si>
   <si>
-    <t>serial_number</t>
+    <t>serialNumber</t>
+  </si>
+  <si>
+    <t>SN18123</t>
+  </si>
+  <si>
+    <t>SN18124</t>
+  </si>
+  <si>
+    <t>SN18125</t>
+  </si>
+  <si>
+    <t>SN18126</t>
+  </si>
+  <si>
+    <t>SN18127</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +193,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -919,7 +925,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +936,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -938,45 +944,46 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>